--- a/results.xlsx
+++ b/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="24" windowWidth="22980" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="24" windowWidth="22980" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="73">
   <si>
     <t>error</t>
   </si>
@@ -184,6 +184,57 @@
   </si>
   <si>
     <t>total errors</t>
+  </si>
+  <si>
+    <t>expected a goal-expression</t>
+  </si>
+  <si>
+    <t>using top-level variable in conde</t>
+  </si>
+  <si>
+    <t>X may not be a goal constructor</t>
+  </si>
+  <si>
+    <t>= vs ==</t>
+  </si>
+  <si>
+    <t>using arg variable in place of goal-expr</t>
+  </si>
+  <si>
+    <t>asssoco</t>
+  </si>
+  <si>
+    <t>equal? vs.==</t>
+  </si>
+  <si>
+    <t>defining top-level goal</t>
+  </si>
+  <si>
+    <t>letrec statement</t>
+  </si>
+  <si>
+    <t>expected identifier</t>
+  </si>
+  <si>
+    <t>relation body missing conde</t>
+  </si>
+  <si>
+    <t>using top-level variable inside conde</t>
+  </si>
+  <si>
+    <t>eq vs. ==</t>
+  </si>
+  <si>
+    <t>= vs. ==</t>
+  </si>
+  <si>
+    <t>nullo? vs.nullo</t>
+  </si>
+  <si>
+    <t>null? vs.nullo</t>
+  </si>
+  <si>
+    <t>equal? vs. ==</t>
   </si>
 </sst>
 </file>
@@ -247,12 +298,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,11 +514,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="98887936"/>
-        <c:axId val="99430784"/>
+        <c:axId val="83059456"/>
+        <c:axId val="83061376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="98887936"/>
+        <c:axId val="83059456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -495,7 +547,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99430784"/>
+        <c:crossAx val="83061376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -503,7 +555,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99430784"/>
+        <c:axId val="83061376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -532,7 +584,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98887936"/>
+        <c:crossAx val="83059456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1608,8 +1660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G27" workbookViewId="0">
-      <selection activeCell="U43" sqref="U43"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2794,12 +2846,1479 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I132"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" t="s">
+        <v>58</v>
+      </c>
+      <c r="D65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>42</v>
+      </c>
+      <c r="C66" t="s">
+        <v>65</v>
+      </c>
+      <c r="D66" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>42</v>
+      </c>
+      <c r="C67" t="s">
+        <v>65</v>
+      </c>
+      <c r="D67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>42</v>
+      </c>
+      <c r="C68" t="s">
+        <v>58</v>
+      </c>
+      <c r="D68" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>32</v>
+      </c>
+      <c r="C69" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C70" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>32</v>
+      </c>
+      <c r="C72" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73" t="s">
+        <v>30</v>
+      </c>
+      <c r="D73" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>36</v>
+      </c>
+      <c r="C74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D74" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>29</v>
+      </c>
+      <c r="C75" t="s">
+        <v>30</v>
+      </c>
+      <c r="D75" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>32</v>
+      </c>
+      <c r="C76" t="s">
+        <v>30</v>
+      </c>
+      <c r="D76" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>42</v>
+      </c>
+      <c r="C78" t="s">
+        <v>58</v>
+      </c>
+      <c r="D78" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>42</v>
+      </c>
+      <c r="C79" t="s">
+        <v>58</v>
+      </c>
+      <c r="D79" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" t="s">
+        <v>56</v>
+      </c>
+      <c r="D80" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" t="s">
+        <v>56</v>
+      </c>
+      <c r="D81" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" t="s">
+        <v>56</v>
+      </c>
+      <c r="D82" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" t="s">
+        <v>58</v>
+      </c>
+      <c r="D83" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" t="s">
+        <v>58</v>
+      </c>
+      <c r="D84" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" t="s">
+        <v>56</v>
+      </c>
+      <c r="D85" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" t="s">
+        <v>58</v>
+      </c>
+      <c r="D86" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" t="s">
+        <v>56</v>
+      </c>
+      <c r="D87" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" t="s">
+        <v>58</v>
+      </c>
+      <c r="D89" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>65</v>
+      </c>
+      <c r="D90" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" t="s">
+        <v>56</v>
+      </c>
+      <c r="D91" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" t="s">
+        <v>58</v>
+      </c>
+      <c r="D92" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" t="s">
+        <v>58</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94" t="s">
+        <v>58</v>
+      </c>
+      <c r="D94" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>21</v>
+      </c>
+      <c r="C95" t="s">
+        <v>58</v>
+      </c>
+      <c r="D95" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>21</v>
+      </c>
+      <c r="C96" t="s">
+        <v>58</v>
+      </c>
+      <c r="D96" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>21</v>
+      </c>
+      <c r="C97" t="s">
+        <v>58</v>
+      </c>
+      <c r="D97" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98" t="s">
+        <v>58</v>
+      </c>
+      <c r="D98" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" t="s">
+        <v>56</v>
+      </c>
+      <c r="D99" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" t="s">
+        <v>56</v>
+      </c>
+      <c r="D100" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" t="s">
+        <v>56</v>
+      </c>
+      <c r="D101" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" t="s">
+        <v>56</v>
+      </c>
+      <c r="D102" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" t="s">
+        <v>56</v>
+      </c>
+      <c r="D103" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" t="s">
+        <v>56</v>
+      </c>
+      <c r="D104" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" t="s">
+        <v>56</v>
+      </c>
+      <c r="D105" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" t="s">
+        <v>58</v>
+      </c>
+      <c r="D106" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" t="s">
+        <v>56</v>
+      </c>
+      <c r="D107" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" t="s">
+        <v>56</v>
+      </c>
+      <c r="D108" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" t="s">
+        <v>58</v>
+      </c>
+      <c r="D109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" t="s">
+        <v>56</v>
+      </c>
+      <c r="D110" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" t="s">
+        <v>56</v>
+      </c>
+      <c r="D111" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" t="s">
+        <v>56</v>
+      </c>
+      <c r="D112" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" t="s">
+        <v>56</v>
+      </c>
+      <c r="D113" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114" t="s">
+        <v>56</v>
+      </c>
+      <c r="D114" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" t="s">
+        <v>56</v>
+      </c>
+      <c r="D115" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" t="s">
+        <v>56</v>
+      </c>
+      <c r="D116" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" t="s">
+        <v>58</v>
+      </c>
+      <c r="D117" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" t="s">
+        <v>56</v>
+      </c>
+      <c r="D118" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" t="s">
+        <v>56</v>
+      </c>
+      <c r="D119" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" t="s">
+        <v>56</v>
+      </c>
+      <c r="D120" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" t="s">
+        <v>56</v>
+      </c>
+      <c r="D121" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" t="s">
+        <v>56</v>
+      </c>
+      <c r="D122" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B123" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" t="s">
+        <v>56</v>
+      </c>
+      <c r="D123" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" t="s">
+        <v>58</v>
+      </c>
+      <c r="D124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" t="s">
+        <v>56</v>
+      </c>
+      <c r="D125" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" t="s">
+        <v>58</v>
+      </c>
+      <c r="D126" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127" t="s">
+        <v>56</v>
+      </c>
+      <c r="D127" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" t="s">
+        <v>58</v>
+      </c>
+      <c r="D128" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B129" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" t="s">
+        <v>56</v>
+      </c>
+      <c r="D129" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" t="s">
+        <v>58</v>
+      </c>
+      <c r="D130" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
+        <v>18</v>
+      </c>
+      <c r="C131" t="s">
+        <v>58</v>
+      </c>
+      <c r="D131" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B132" t="s">
+        <v>18</v>
+      </c>
+      <c r="C132" t="s">
+        <v>56</v>
+      </c>
+      <c r="D132" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
